--- a/Super Market Billing System group 6/RTM/RTM_group_6.xlsx
+++ b/Super Market Billing System group 6/RTM/RTM_group_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/kachana_surekha_capgemini_com/Documents/Desktop/Super Market Billing System group 6/RTM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AFA7F549-E6A8-4F09-9EA7-4BE3F9FE6A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3718D15-6D01-4B89-91BC-507252BC7E5F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{AFA7F549-E6A8-4F09-9EA7-4BE3F9FE6A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D377BF1-E7B7-4660-93DC-97EA9384EE5B}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="2550" windowWidth="14400" windowHeight="6080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4570" yWindow="1680" windowWidth="14400" windowHeight="6080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Customer_Place_Order()</t>
   </si>
   <si>
-    <t>2.11/2.12/2.13</t>
-  </si>
-  <si>
     <t>Product_Code_Validation(),Username_Validation(),Password_Validation(),</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>1.2.10</t>
+  </si>
+  <si>
+    <t>1.2.11</t>
   </si>
 </sst>
 </file>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
@@ -534,10 +534,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>17</v>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>23</v>
@@ -590,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>24</v>
